--- a/data/flowering.xlsx
+++ b/data/flowering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moin2\OneDrive\Documents\Horsenettle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E191C7-7CD5-4F4C-903C-22E3349B1923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93696D-D547-451F-BCB6-91F322F4B773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{292FA309-E0CD-4BFA-A33D-111292668DB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="77">
   <si>
     <t>population</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>flowering_date</t>
+  </si>
+  <si>
+    <t>PI3</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>plate_date</t>
   </si>
 </sst>
 </file>
@@ -608,18 +617,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD09F09D-79BF-4D85-BF14-33AB0DA4BFAF}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +654,11 @@
       <c r="H1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -671,7 +684,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -697,7 +710,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -720,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -743,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -769,7 +782,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -792,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -815,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -838,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -861,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -884,7 +897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -907,7 +920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -933,7 +946,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -959,7 +972,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -982,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1220,6 +1233,9 @@
       <c r="G25">
         <v>13</v>
       </c>
+      <c r="H25" s="1">
+        <v>44327</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1338,6 +1354,9 @@
       <c r="G30">
         <v>16</v>
       </c>
+      <c r="H30" s="1">
+        <v>44313</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1407,7 +1426,9 @@
       <c r="G33">
         <v>17</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>44318</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1526,6 +1547,9 @@
       <c r="G38">
         <v>20</v>
       </c>
+      <c r="H38" s="1">
+        <v>44314</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1548,6 +1572,9 @@
       </c>
       <c r="G39">
         <v>20</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44312</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1596,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="1">
-        <v>44288</v>
+        <v>44316</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1904,6 +1931,9 @@
       <c r="G53">
         <v>34</v>
       </c>
+      <c r="H53" s="1">
+        <v>44315</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -1926,6 +1956,9 @@
       </c>
       <c r="G54">
         <v>35</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44318</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2186,6 +2219,9 @@
       <c r="G65">
         <v>40</v>
       </c>
+      <c r="H65" s="1">
+        <v>44318</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2399,6 +2435,9 @@
       <c r="G74">
         <v>45</v>
       </c>
+      <c r="H74" s="1">
+        <v>44315</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -2538,7 +2577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>29</v>
       </c>
@@ -2561,7 +2600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -2584,7 +2623,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -2607,7 +2646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2692,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2676,7 +2715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2697,6 +2736,531 @@
       </c>
       <c r="G87">
         <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
+        <v>53</v>
+      </c>
+      <c r="H90" s="1">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>54</v>
+      </c>
+      <c r="H92" s="1">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>55</v>
+      </c>
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>55</v>
+      </c>
+      <c r="H95" s="1">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" t="s">
+        <v>58</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>56</v>
+      </c>
+      <c r="H97" s="1">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>57</v>
+      </c>
+      <c r="H99" s="1">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>75</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>58</v>
+      </c>
+      <c r="H101" s="1">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" t="s">
+        <v>75</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>74</v>
+      </c>
+      <c r="E103" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>75</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
